--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 49053-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 49053-2018.xlsx", "A 49053-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 49053-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 49053-2018.png", "A 49053-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 49053-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 49053-2018.docx", "A 49053-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 49053-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 49053-2018.docx", "A 49053-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 49053-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 49053-2018.docx", "A 49053-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 49053-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 49053-2018.docx", "A 49053-2018")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,27 +709,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 29376-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 29376-2020.xlsx", "A 29376-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 29376-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 29376-2020.png", "A 29376-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 29376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 29376-2020.docx", "A 29376-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 29376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 29376-2020.docx", "A 29376-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 29376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 29376-2020.docx", "A 29376-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 29376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 29376-2020.docx", "A 29376-2020")</f>
         <v/>
       </c>
     </row>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -794,27 +794,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 13766-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 13766-2023.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 13766-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 13766-2023.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 13766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 13766-2023.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 13766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 13766-2023.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 13766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 13766-2023.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 13766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 13766-2023.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -879,27 +879,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 31213-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/artfynd/A 31213-2023.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 31213-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/kartor/A 31213-2023.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 31213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomål/A 31213-2023.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 31213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/klagomålsmail/A 31213-2023.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 31213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsyn/A 31213-2023.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 31213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YSTAD/tillsynsmail/A 31213-2023.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43374</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43651</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43689</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43887</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44000</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44096</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44127</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44208</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44348</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44617</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44756</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44823</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44903</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45063</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
